--- a/medicine/Mort/Cimetière_Sud_de_Clichy/Cimetière_Sud_de_Clichy.xlsx
+++ b/medicine/Mort/Cimetière_Sud_de_Clichy/Cimetière_Sud_de_Clichy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sud_de_Clichy</t>
+          <t>Cimetière_Sud_de_Clichy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Sud de Clichy est un des cimetières de la ville de Clichy dans les Hauts-de-Seine. Il est situé rue Chance-Milly[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Sud de Clichy est un des cimetières de la ville de Clichy dans les Hauts-de-Seine. Il est situé rue Chance-Milly.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sud_de_Clichy</t>
+          <t>Cimetière_Sud_de_Clichy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lieu de sépulture provient du transfert du cimetière situé près de l’église Saint-Médard en 1819.
-Il est commun entre Clichy et Levallois-Perret jusqu’en 1870[2]. Il a été agrandi en 1847, 1860 et 1897-1898[3].
+Il est commun entre Clichy et Levallois-Perret jusqu’en 1870. Il a été agrandi en 1847, 1860 et 1897-1898.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sud_de_Clichy</t>
+          <t>Cimetière_Sud_de_Clichy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière, créé le long de la ligne de Paris-Saint-Lazare à Saint-Germain-en-Laye, est circonscrit par la rue Henri-Barbusse, la rue Chance-Milly et la rue Marcel-Paul. La partie à gauche de l'entrée est la plus ancienne avec encore quelques chapelles funéraires. 
 Il comprend un carré militaire. Le monument aux morts sur le rond-point central montre une figure féminine tenant une palme, œuvre du sculpteur Andrieu.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sud_de_Clichy</t>
+          <t>Cimetière_Sud_de_Clichy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Personnalités reposant dans ce cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Bisciglia (1928-2010), acteur
 Charles Eugène Faré (1801-1870), cofondateur des Nouvelles Galeries du Louvre (chapelle funéraire) ;
